--- a/viewcasepackage.xlsx
+++ b/viewcasepackage.xlsx
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1222,9 +1222,10 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" hidden="1" spans="6:8">
       <c r="F3" t="s">
